--- a/Report.xlsx
+++ b/Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>ردیف</t>
   </si>
@@ -148,16 +148,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +446,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +537,9 @@
       <c r="D5" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -548,7 +554,9 @@
       <c r="D6" s="4">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -563,7 +571,9 @@
       <c r="D7" s="4">
         <v>3.125E-2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -576,7 +586,9 @@
       <c r="D8" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -591,7 +603,9 @@
       <c r="D9" s="5">
         <v>0.10416666666666667</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -604,9 +618,11 @@
         <v>18</v>
       </c>
       <c r="D10" s="5">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -621,7 +637,9 @@
       <c r="D11" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -636,7 +654,9 @@
       <c r="D12" s="5">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
